--- a/Source/命名規則v1.xlsx
+++ b/Source/命名規則v1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>ETロボコン命名規約</t>
     <rPh sb="6" eb="8">
@@ -1136,6 +1136,14 @@
     <rPh sb="18" eb="20">
       <t>キジュツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1599,10 +1607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1831,7 +1839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1863,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -1871,359 +1879,375 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>42</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>104</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>43</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B70" t="s">
         <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="D73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>43</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>105</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="1" t="s">
+    <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>97</v>
       </c>
     </row>
